--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\RESPALDO\TRANSPARENCIA UPP\2023\SIPOT\3er Trimestres 2023\UPP 3ER TRI 2023 SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO. 1\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E824391E-A47A-4F99-AFFD-B62FBDE0E7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36DC280-6C04-4316-AC63-3CFD980F205A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
     <t>Segundo apellido del/la servidor(a) público(a) de contacto</t>
   </si>
   <si>
-    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/04/2023 -&gt; Sexo (catálogo)</t>
   </si>
   <si>
     <t>Correo electrónico oficial</t>
@@ -625,55 +625,58 @@
     <t>Baja California</t>
   </si>
   <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Buzón de quejas y sugerencias</t>
+  </si>
+  <si>
+    <t>Atención directa</t>
+  </si>
+  <si>
+    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana.</t>
+  </si>
+  <si>
+    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
+  </si>
+  <si>
+    <t>Que la comunidad universitaria cuente con un medio de comunicación, donde exponga sus quejas y sugerencias sobre el desempeño de los procesos de la universidad, incluyendo a los funcionarios públicos e infraestructura.</t>
+  </si>
+  <si>
+    <t>Institucional</t>
+  </si>
+  <si>
+    <t>Espacios de atención ciudadana mediante un correo electrónico para atender sus quejas o sugerencias</t>
+  </si>
+  <si>
+    <t>Espacios de atención ciudadana mediante un buzon físico para atender sus quejas o sugerencias</t>
+  </si>
+  <si>
+    <t>Espacios de comunicación de los funcionarios públicos y la ciudadania atender sus dudas y comentarios o sugerencias.</t>
+  </si>
+  <si>
+    <t>Horarios y días habiles como se marca en los horarios y días de atención</t>
+  </si>
+  <si>
+    <t>Realizar su queja o sugerencia en papel y depositarla en los buzones correspondientes</t>
+  </si>
+  <si>
+    <t>Mediante un correo electrónico</t>
+  </si>
+  <si>
+    <t>Escrito en Buzón </t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
     <t>Departamento de Calidad (UPP)</t>
   </si>
   <si>
-    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
-  </si>
-  <si>
-    <t>Que la comunidad universitaria cuente con un medio de comunicación, donde exponga sus quejas y sugerencias sobre el desempeño de los procesos de la universidad, incluyendo a los funcionarios públicos e infraestructura.</t>
-  </si>
-  <si>
-    <t>Institucional</t>
-  </si>
-  <si>
-    <t>Espacios de atención ciudadana mediante un correo electrónico para atender sus quejas o sugerencias</t>
-  </si>
-  <si>
-    <t>Horarios y días habiles como se marca en los horarios y días de atención</t>
-  </si>
-  <si>
-    <t>Mediante un correo electrónico</t>
-  </si>
-  <si>
-    <t>Correo electrónico</t>
-  </si>
-  <si>
-    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
-  </si>
-  <si>
-    <t>Realizar su queja o sugerencia en papel y depositarla en los buzones correspondientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escrito en Buzón </t>
-  </si>
-  <si>
-    <t>Buzón de quejas y sugerencias</t>
-  </si>
-  <si>
-    <t>Espacios de comunicación de los funcionarios públicos y la ciudadania atender sus dudas y comentarios o sugerencias.</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Atención directa</t>
-  </si>
-  <si>
     <t>Los criterios e hipervínculos que se encuentran en blanco es porque no los requiere los mecanismos de participación ciudadana ya que son permanentes.</t>
   </si>
   <si>
-    <t>Jesús Eduardo</t>
+    <t>Eduardo</t>
   </si>
   <si>
     <t>Juarico</t>
@@ -685,37 +688,37 @@
     <t>sgc@upp.edu.mx</t>
   </si>
   <si>
-    <t>Sin calle</t>
-  </si>
-  <si>
-    <t>Sin número</t>
+    <t>Zempoala</t>
+  </si>
+  <si>
+    <t>Pachuca-Cd. Sahagún</t>
+  </si>
+  <si>
+    <t>Santa Bárbara</t>
+  </si>
+  <si>
+    <t>No hay domicilio en el extranjero</t>
+  </si>
+  <si>
+    <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
+  </si>
+  <si>
+    <t>s/n</t>
+  </si>
+  <si>
+    <t>771 547 7510 Extensión: 2265</t>
   </si>
   <si>
     <t>Rancho Luna</t>
-  </si>
-  <si>
-    <t>Rancho Luna,  Ex Hda. Sta Barbara</t>
-  </si>
-  <si>
-    <t>Zempoala</t>
-  </si>
-  <si>
-    <t>No existe</t>
-  </si>
-  <si>
-    <t>7715477510 ext. 2265</t>
-  </si>
-  <si>
-    <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
-  </si>
-  <si>
-    <t>Espacios de atención ciudadana mediante un buzon físico para atender sus quejas o sugerencias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,11 +732,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -757,7 +762,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,14 +779,8 @@
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -804,6 +803,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -812,58 +822,64 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -884,9 +900,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -894,44 +910,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -981,9 +997,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1030,7 +1046,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1039,166 +1055,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1206,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,13 +1207,13 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.28515625" customWidth="1"/>
+    <col min="6" max="6" width="79.28515625" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42" customWidth="1"/>
     <col min="11" max="11" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -1230,7 +1222,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35" customWidth="1"/>
+    <col min="19" max="19" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1238,397 +1230,397 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:19" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2023</v>
       </c>
       <c r="B8" s="5">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="C8" s="5">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="11" t="s">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>45301</v>
+      </c>
+      <c r="R8" s="5">
+        <v>45301</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45200</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="E9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>45301</v>
+      </c>
+      <c r="R9" s="5">
+        <v>45301</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45200</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45291</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="9">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="4">
         <v>1</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>45209</v>
-      </c>
-      <c r="R8" s="5">
-        <v>45209</v>
-      </c>
-      <c r="S8" s="7" t="s">
+      <c r="P10" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="5">
-        <v>45108</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45199</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="9">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>45209</v>
-      </c>
-      <c r="R9" s="5">
-        <v>45209</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="5">
-        <v>45108</v>
-      </c>
-      <c r="C10" s="5">
-        <v>45199</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="9">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="Q10" s="5">
-        <v>45209</v>
+        <v>45301</v>
       </c>
       <c r="R10" s="5">
-        <v>45209</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>212</v>
+        <v>45301</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1649,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="P3" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,7 +1669,7 @@
     <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -1816,7 +1808,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -1887,94 +1879,94 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N4" s="4">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="4">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="N4" s="13">
-        <v>8</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="P4" s="13">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="4">
+        <v>13</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T4" s="4">
+        <v>43830</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="R4" s="13">
-        <v>13</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="T4" s="13">
-        <v>43830</v>
-      </c>
-      <c r="U4" s="13" t="s">
+      <c r="V4" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F5:F201" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F201" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Hidden_1_Tabla_3954245</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H201" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Hidden_2_Tabla_3954247</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L5:L201" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L4:L201" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Hidden_3_Tabla_39542411</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S5:S201" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S4:S201" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Hidden_4_Tabla_39542418</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{8E9031D0-CB61-4E2A-843D-EB67C1004532}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
